--- a/biology/Médecine/14e_centre_médical_des_armées/14e_centre_médical_des_armées.xlsx
+++ b/biology/Médecine/14e_centre_médical_des_armées/14e_centre_médical_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 14e Centre médical des armées (14e CMA) est une formation organique du service de santé des armées, subordonnée à la direction de la médecine des forces (DMF) à laquelle il est rattaché. Le 14e CMA a son échelon de commandement implanté sur le site de la base aérienne 705 à Tours. Il regroupe et coordonne l’activité de 19 antennes en région Centre-Val de Loire et Pays de la Loire.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 14e CMA est issu de la fusion, réalisée en 2019, du 14e CMA d'Angers (appelé jusqu'en 2017 « CMA d'Angers ») et du 17e CMA de Tours (appelé avant 2017 « CMA de Tours »)[1]. Ce dernier prend la suite du CMA-NG expérimental d'Orléans-Tours-Bourges-Avord créé en 2015.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14e CMA est issu de la fusion, réalisée en 2019, du 14e CMA d'Angers (appelé jusqu'en 2017 « CMA d'Angers ») et du 17e CMA de Tours (appelé avant 2017 « CMA de Tours »). Ce dernier prend la suite du CMA-NG expérimental d'Orléans-Tours-Bourges-Avord créé en 2015.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Élément «tradition» du 14e CMA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’insigne de tradition du 14e CMA a fait l'objet d'une homologation officielle par le service historique de la défense (SHD).
-La description héraldique fait appel à une symbolique fonctionnelle et territoriale : il comporte le blason de la ville de Tours à droite du caducée du service de santé des armées (le serpent d'Esculape, enroulé autour d'un faisceau de trois verges représentant les trois branches de l'art de guérir - médecine, chirurgie, pharmacie - et regardant dans le miroir de la Prudence placé au sommet de la composition)[2],[3], sur un écu amarante (couleur de tradition du service de santé des armées) bordé d'or. Les trois lettres "CMA" pour centre médical des armées sont inscrites en doré en haut de l'insigne.
-Le fanion du 14e CMA reprend les mêmes éléments de cette symbolique. Il est défini très précisément et réglementairement par l'instruction n° 200/DEF/DCSSA/OL relative au patrimoine de tradition des formations du service de santé des armées; rubrique 2.2.2[3]. Cet insigne est propre au 14e CMA et à l’ensemble de ses antennes.
-Le 14e CMA  a hérité de la citation[4] du CMA Angers-Le Mans-Saumur (décision du 6 juin 2014) comportant l’attribution de la croix de la valeur militaire avec étoile de bronze, en raison de son engagement au Mali en 2013 dans le cadre de l’opération Serval.
+La description héraldique fait appel à une symbolique fonctionnelle et territoriale : il comporte le blason de la ville de Tours à droite du caducée du service de santé des armées (le serpent d'Esculape, enroulé autour d'un faisceau de trois verges représentant les trois branches de l'art de guérir - médecine, chirurgie, pharmacie - et regardant dans le miroir de la Prudence placé au sommet de la composition) sur un écu amarante (couleur de tradition du service de santé des armées) bordé d'or. Les trois lettres "CMA" pour centre médical des armées sont inscrites en doré en haut de l'insigne.
+Le fanion du 14e CMA reprend les mêmes éléments de cette symbolique. Il est défini très précisément et réglementairement par l'instruction n° 200/DEF/DCSSA/OL relative au patrimoine de tradition des formations du service de santé des armées; rubrique 2.2.2. Cet insigne est propre au 14e CMA et à l’ensemble de ses antennes.
+Le 14e CMA  a hérité de la citation du CMA Angers-Le Mans-Saumur (décision du 6 juin 2014) comportant l’attribution de la croix de la valeur militaire avec étoile de bronze, en raison de son engagement au Mali en 2013 dans le cadre de l’opération Serval.
 Citation du 14e CMA
 DÉCISION N°59 du 6 juin 2014
 LE MINISTRE DE LA DÉFENSE
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,6 +613,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +642,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">CMA NG expérimental d'Orléans-Tours-Bourges-Avord
-Médecin chef des services Patrick Derain 2015-2017.
-CMA de Tours/17e CMA de Tours
-Médecin en chef Arnaud Graslin 2017-2019.
-CMA d'Angers
-Médecin en chef Philippe Mathecowitsch 2017-2018.
-14e CMA d'Angers (avant fusion avec le 17e CMA de Tours)
-Médecin chef des services Philippe Mathecowitsch jusqu'en 2018.
-Médecin en chef Florence Guilmand 2018-2019.
-14e CMA de Tours (depuis 2019)
-Médecin en chef Jean-Philippe Even. Depuis 2019.
+          <t>CMA NG expérimental d'Orléans-Tours-Bourges-Avord</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin chef des services Patrick Derain 2015-2017.
 </t>
         </is>
       </c>
@@ -645,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,16 +674,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Personnalités</t>
+          <t>Chefs de corps.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecin des armées Marc Laycuras (12/01/1989-02/04/2019)
-Marc Laycuras est né le 12 janvier 1989 à Cholet. Il suit sa scolarité en Corrèze et réussit brillamment le concours d’entrée dans le service de santé des armées. Il rejoint alors l’école du service de santé des armées de Bordeaux le 1er août 2007 où il réalise sa scolarité comme élève-officier puis médecin aspirant ; il apparaît d’emblée comme un élément prometteur et passionné. A la suite de sa réussite à l’examen classant national, il est nommé interne des hôpitaux des armées. Son classement lui permet d’effectuer son internat au sein de l’hôpital d’instruction des armées Percy. Durant ces trois années, il perfectionne ses compétences de médecin au lit du malade. Il est immédiatement remarqué pour son humilité et son investissement. Il se consacre pleinement au service des malades et en particulier des militaires blessés en opération. Il soutient sa thèse de médecine dans le domaine de la chirurgie sur l’étude de la sensibilité et spécificité des signes cliniques et biologiques dans le diagnostic de l’appendicite aiguë et est reçu docteur en médecine le 13 octobre 2017. Nommé médecin à compter du 1er janvier 2017, il choisit de servir au sein de la 120e antenne médicale du Mans rattachée au 14e centre médical des armées et au profit des marsouins du 2e RIMA. Il rejoint ce premier poste le 2 janvier 2018[5].
-Le 12 février 2019, il rejoint le Mali comme médecin du poste médical soutenant le 2e RIMA, après avoir été désigné pour soutenir le groupement tactique interarmes (GTD Richelieu) dans le cadre de l’opération Barkhane[5].
-Au cours de cette mission, il est mortellement blessé par un engin explosif détruisant son véhicule. Malgré les soins prodigués par les équipes médicales présentes, il décède des suites de ses blessures le 02 avril 2019 à l’âge de 30 ans[5].
-Le médecin Marc Laycuras était marié et titulaire de la médaille de la défense nationale[5].
+          <t>CMA de Tours/17e CMA de Tours</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin en chef Arnaud Graslin 2017-2019.
 </t>
         </is>
       </c>
@@ -680,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+          <t>14e_centre_médical_des_armées</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,32 +711,323 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Chefs de corps.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CMA d'Angers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin en chef Philippe Mathecowitsch 2017-2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chefs de corps.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14e CMA d'Angers (avant fusion avec le 17e CMA de Tours)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin chef des services Philippe Mathecowitsch jusqu'en 2018.
+Médecin en chef Florence Guilmand 2018-2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chefs de corps.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14e CMA de Tours (depuis 2019)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin en chef Jean-Philippe Even. Depuis 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Médecin des armées Marc Laycuras (12/01/1989-02/04/2019)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Laycuras est né le 12 janvier 1989 à Cholet. Il suit sa scolarité en Corrèze et réussit brillamment le concours d’entrée dans le service de santé des armées. Il rejoint alors l’école du service de santé des armées de Bordeaux le 1er août 2007 où il réalise sa scolarité comme élève-officier puis médecin aspirant ; il apparaît d’emblée comme un élément prometteur et passionné. A la suite de sa réussite à l’examen classant national, il est nommé interne des hôpitaux des armées. Son classement lui permet d’effectuer son internat au sein de l’hôpital d’instruction des armées Percy. Durant ces trois années, il perfectionne ses compétences de médecin au lit du malade. Il est immédiatement remarqué pour son humilité et son investissement. Il se consacre pleinement au service des malades et en particulier des militaires blessés en opération. Il soutient sa thèse de médecine dans le domaine de la chirurgie sur l’étude de la sensibilité et spécificité des signes cliniques et biologiques dans le diagnostic de l’appendicite aiguë et est reçu docteur en médecine le 13 octobre 2017. Nommé médecin à compter du 1er janvier 2017, il choisit de servir au sein de la 120e antenne médicale du Mans rattachée au 14e centre médical des armées et au profit des marsouins du 2e RIMA. Il rejoint ce premier poste le 2 janvier 2018.
+Le 12 février 2019, il rejoint le Mali comme médecin du poste médical soutenant le 2e RIMA, après avoir été désigné pour soutenir le groupement tactique interarmes (GTD Richelieu) dans le cadre de l’opération Barkhane.
+Au cours de cette mission, il est mortellement blessé par un engin explosif détruisant son véhicule. Malgré les soins prodigués par les équipes médicales présentes, il décède des suites de ses blessures le 02 avril 2019 à l’âge de 30 ans.
+Le médecin Marc Laycuras était marié et titulaire de la médaille de la défense nationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Liste des antennes rattachées au 14ème CMA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le 14e CMA compte dans sa zone de responsabilité plusieurs antennes médicales (AM), antennes médicales de prévention (AMP), antennes médicales spécialisées (AMS) ou encore des groupes vétérinaires (GV).
-1- Zone géographique de Tours
-Échelon de commandement (Tours)
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14e CMA compte dans sa zone de responsabilité plusieurs antennes médicales (AM), antennes médicales de prévention (AMP), antennes médicales spécialisées (AMS) ou encore des groupes vétérinaires (GV).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des antennes rattachées au 14ème CMA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1- Zone géographique de Tours</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Échelon de commandement (Tours)
 95e antenne médicale (Romorantin)
 111e antenne médicale (Tours)
-33e groupe vétérinaire (Tours)
-2- Zone géographique de Bourges - Avord
-87e antenne médicale (Avord), elle se situe sur la base aérienne 702 d'Avord qu'elle soutient.
+33e groupe vétérinaire (Tours)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des antennes rattachées au 14ème CMA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2- Zone géographique de Bourges - Avord</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>87e antenne médicale (Avord), elle se situe sur la base aérienne 702 d'Avord qu'elle soutient.
 89e antenne médicale (Bourges)
 99e antenne médicale (Le Blanc)
 20e antenne médicale de prévention (Bourges)
-29e antenne médicale de prévention (Neuvy-Pailloux)
-3- Zone géographique d'Orléans
-96e antenne médicale (Orléans)
+29e antenne médicale de prévention (Neuvy-Pailloux)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des antennes rattachées au 14ème CMA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3- Zone géographique d'Orléans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>96e antenne médicale (Orléans)
 97e antenne médicale (Olivet)
 100e antenne médicale (Bricy)
-114e antenne médicale (Châteaudun), dissoute le 31 août 2021[6].
+114e antenne médicale (Châteaudun), dissoute le 31 août 2021.
 24e antenne médicale de prévention (Orléans)
-406e antenne médicale spécialisée (Bricy)
-4- Zone géographique d'Angers
-116e antenne médicale (Fontevraud), elle soutient le 2e régiment de dragons et les écoles militaires de Saumur.
+406e antenne médicale spécialisée (Bricy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des antennes rattachées au 14ème CMA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4- Zone géographique d'Angers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>116e antenne médicale (Fontevraud), elle soutient le 2e régiment de dragons et les écoles militaires de Saumur.
 117e antenne médicale (La Flèche), elle est implantée au sein du Prytanée national militaire de La Flèche qu'elle soutient.
 118e antenne médicale (Angers-Eblé), elle est installée dans le quartier Eblé à Angers, qui héberge notamment l’École du génie.
 119e antenne médicale (Angers-Verneau), elle est basée au sein de la caserne Verneau à Angers, emprise du 6e régiment du génie qui est une des unités qu'elle soutient. Elle a hérité des traditions de l'infirmerie du régiment à la création des CMA et des antennes médicales.
@@ -729,31 +1036,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14e_centre_médical_des_armées</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/14e_centre_m%C3%A9dical_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Lien Armée - jeunesse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis septembre 2020, le 14ème CMA est l'unité marraine de la classe de défense "3ème Institution Marmoutier-14ème CMA.
 Promotion 2020-2021 : "Médecin principal Marc Laycuras"
